--- a/y_dis.xlsx
+++ b/y_dis.xlsx
@@ -614,7 +614,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>11.48866350963371</v>
+        <v>12.19401524636689</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -638,7 +638,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>11.01951399745803</v>
+        <v>11.98949499145805</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>11.41204379318897</v>
+        <v>12.5790283359426</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>11.7108824817347</v>
+        <v>12.30994154928788</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>511</v>
       </c>
       <c r="B501">
-        <v>11.3653762805775</v>
+        <v>11.47503666442742</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>512</v>
       </c>
       <c r="B502">
-        <v>11.74483052195301</v>
+        <v>11.82114518863956</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>513</v>
       </c>
       <c r="B503">
-        <v>11.28559817400969</v>
+        <v>11.40384693494399</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>514</v>
       </c>
       <c r="B504">
-        <v>12.05111330549203</v>
+        <v>12.10785323802371</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>515</v>
       </c>
       <c r="B505">
-        <v>11.09142243416429</v>
+        <v>11.23329092409775</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>516</v>
       </c>
       <c r="B506">
-        <v>10.63947868208796</v>
+        <v>10.85419903461241</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>517</v>
       </c>
       <c r="B507">
-        <v>11.31386458417198</v>
+        <v>11.42900023003247</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>518</v>
       </c>
       <c r="B508">
-        <v>11.68998319208908</v>
+        <v>11.77043179491195</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>519</v>
       </c>
       <c r="B509">
-        <v>11.98336649854074</v>
+        <v>12.04396539598646</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>520</v>
       </c>
       <c r="B510">
-        <v>11.18385179135868</v>
+        <v>11.31397440120471</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>521</v>
       </c>
       <c r="B511">
-        <v>11.12646855103274</v>
+        <v>11.26377155822379</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>522</v>
       </c>
       <c r="B512">
-        <v>11.24729186203507</v>
+        <v>11.36988615789768</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>523</v>
       </c>
       <c r="B513">
-        <v>11.39303771595779</v>
+        <v>11.49986048864079</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>524</v>
       </c>
       <c r="B514">
-        <v>11.87080967744895</v>
+        <v>11.93838925958508</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>525</v>
       </c>
       <c r="B515">
-        <v>11.53722775749319</v>
+        <v>11.63035288184619</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>526</v>
       </c>
       <c r="B516">
-        <v>11.24187760699893</v>
+        <v>11.36509808421544</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>527</v>
       </c>
       <c r="B517">
-        <v>11.65362609707308</v>
+        <v>11.73693264325129</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>528</v>
       </c>
       <c r="B518">
-        <v>11.63586849824468</v>
+        <v>11.72060607889772</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>529</v>
       </c>
       <c r="B519">
-        <v>11.50602168865343</v>
+        <v>11.60196145770819</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>530</v>
       </c>
       <c r="B520">
-        <v>11.04621241582256</v>
+        <v>11.19417919106523</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>531</v>
       </c>
       <c r="B521">
-        <v>11.08291148394065</v>
+        <v>11.22590983706161</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>532</v>
       </c>
       <c r="B522">
-        <v>11.04965114306246</v>
+        <v>11.19714565573409</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>533</v>
       </c>
       <c r="B523">
-        <v>11.71564587651021</v>
+        <v>11.79413413005885</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>534</v>
       </c>
       <c r="B524">
-        <v>12.03883672615426</v>
+        <v>12.09625777952297</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>535</v>
       </c>
       <c r="B525">
-        <v>11.00066547966606</v>
+        <v>11.15502119429035</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>536</v>
       </c>
       <c r="B526">
-        <v>11.6613454700885</v>
+        <v>11.74403718593362</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>537</v>
       </c>
       <c r="B527">
-        <v>11.72929411840324</v>
+        <v>11.80675858090652</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>538</v>
       </c>
       <c r="B528">
-        <v>12.11217396908612</v>
+        <v>12.16564119973584</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>539</v>
       </c>
       <c r="B529">
-        <v>11.24760483475683</v>
+        <v>11.37016302560283</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>540</v>
       </c>
       <c r="B530">
-        <v>11.97098302319756</v>
+        <v>12.03231431939671</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>541</v>
       </c>
       <c r="B531">
-        <v>10.95406439216568</v>
+        <v>11.1152201714735</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>542</v>
       </c>
       <c r="B532">
-        <v>11.2378568407911</v>
+        <v>11.36154427988291</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>543</v>
       </c>
       <c r="B533">
-        <v>11.68269355569256</v>
+        <v>11.76370752934839</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>544</v>
       </c>
       <c r="B534">
-        <v>10.66776864425427</v>
+        <v>10.87708446510995</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>545</v>
       </c>
       <c r="B535">
-        <v>11.5497876297028</v>
+        <v>11.64180229189111</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>546</v>
       </c>
       <c r="B536">
-        <v>11.03856033820701</v>
+        <v>11.18758306133577</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>547</v>
       </c>
       <c r="B537">
-        <v>11.10986246947808</v>
+        <v>11.24931141985215</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>548</v>
       </c>
       <c r="B538">
-        <v>11.3766474466776</v>
+        <v>11.48514308395778</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>549</v>
       </c>
       <c r="B539">
-        <v>11.13336199438472</v>
+        <v>11.26978326714933</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>550</v>
       </c>
       <c r="B540">
-        <v>12.09032503698586</v>
+        <v>12.14494164552594</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>551</v>
       </c>
       <c r="B541">
-        <v>11.8242996496788</v>
+        <v>11.89498546463207</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>552</v>
       </c>
       <c r="B542">
-        <v>11.34701254711029</v>
+        <v>11.45859598709147</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>553</v>
       </c>
       <c r="B543">
-        <v>11.35723025964398</v>
+        <v>11.46773979679291</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>554</v>
       </c>
       <c r="B544">
-        <v>11.83797557389075</v>
+        <v>11.90773399288986</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>555</v>
       </c>
       <c r="B545">
-        <v>11.73187623886473</v>
+        <v>11.80914845968376</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>556</v>
       </c>
       <c r="B546">
-        <v>11.49512802593965</v>
+        <v>11.59206930724682</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>557</v>
       </c>
       <c r="B547">
-        <v>10.92563267809028</v>
+        <v>11.0910717950065</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>558</v>
       </c>
       <c r="B548">
-        <v>10.66171997975201</v>
+        <v>10.87218096320333</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>559</v>
       </c>
       <c r="B549">
-        <v>11.34554769156188</v>
+        <v>11.45728589709955</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>560</v>
       </c>
       <c r="B550">
-        <v>11.03585693800237</v>
+        <v>11.18525438430208</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>561</v>
       </c>
       <c r="B551">
-        <v>10.87149748808559</v>
+        <v>11.04538280505385</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>562</v>
       </c>
       <c r="B552">
-        <v>11.5754588521697</v>
+        <v>11.66524303711032</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>563</v>
       </c>
       <c r="B553">
-        <v>11.54636024105647</v>
+        <v>11.63867667027579</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>564</v>
       </c>
       <c r="B554">
-        <v>11.57942456292043</v>
+        <v>11.66886882270412</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>565</v>
       </c>
       <c r="B555">
-        <v>11.33767882184824</v>
+        <v>11.45025187044217</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>566</v>
       </c>
       <c r="B556">
-        <v>11.72104471458532</v>
+        <v>11.79912644114021</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>567</v>
       </c>
       <c r="B557">
-        <v>11.41689902871548</v>
+        <v>11.52133004731404</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>568</v>
       </c>
       <c r="B558">
-        <v>11.88053639246074</v>
+        <v>11.94748324728167</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>569</v>
       </c>
       <c r="B559">
-        <v>11.64651185608231</v>
+        <v>11.73038891500924</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>570</v>
       </c>
       <c r="B560">
-        <v>11.1482327501522</v>
+        <v>11.28276988675664</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>571</v>
       </c>
       <c r="B561">
-        <v>11.57243888139127</v>
+        <v>11.66248275417021</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>572</v>
       </c>
       <c r="B562">
-        <v>11.24885574704337</v>
+        <v>11.37126973050229</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>573</v>
       </c>
       <c r="B563">
-        <v>11.0848312388017</v>
+        <v>11.22757400785673</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>574</v>
       </c>
       <c r="B564">
-        <v>11.92201732180074</v>
+        <v>11.98632955608659</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>575</v>
       </c>
       <c r="B565">
-        <v>11.73954297509594</v>
+        <v>11.81624709940969</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>576</v>
       </c>
       <c r="B566">
-        <v>12.02085690462288</v>
+        <v>12.07928985832692</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>577</v>
       </c>
       <c r="B567">
-        <v>11.46562419185222</v>
+        <v>11.56532814376328</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>578</v>
       </c>
       <c r="B568">
-        <v>10.77918543030203</v>
+        <v>10.9683879267187</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>579</v>
       </c>
       <c r="B569">
-        <v>11.78524006029089</v>
+        <v>11.85864056867262</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>580</v>
       </c>
       <c r="B570">
-        <v>10.75464225146475</v>
+        <v>10.94811872733772</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>581</v>
       </c>
       <c r="B571">
-        <v>11.1691949506669</v>
+        <v>11.30111742331976</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>582</v>
       </c>
       <c r="B572">
-        <v>11.02818985096398</v>
+        <v>11.17865480310386</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>583</v>
       </c>
       <c r="B573">
-        <v>12.15211791793225</v>
+        <v>12.20354445234134</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>584</v>
       </c>
       <c r="B574">
-        <v>12.08274614824279</v>
+        <v>12.13776703782336</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>585</v>
       </c>
       <c r="B575">
-        <v>11.59058996232671</v>
+        <v>11.67908376392176</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>586</v>
       </c>
       <c r="B576">
-        <v>11.78016245379495</v>
+        <v>11.85392316052366</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>587</v>
       </c>
       <c r="B577">
-        <v>11.31830863008212</v>
+        <v>11.43296192082984</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>588</v>
       </c>
       <c r="B578">
-        <v>11.79774343980736</v>
+        <v>11.8702641885585</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>589</v>
       </c>
       <c r="B579">
-        <v>11.10963798410984</v>
+        <v>11.24911615693</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>590</v>
       </c>
       <c r="B580">
-        <v>11.23307927828622</v>
+        <v>11.35732373287566</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>591</v>
       </c>
       <c r="B581">
-        <v>11.76651286365118</v>
+        <v>11.84125031588403</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>592</v>
       </c>
       <c r="B582">
-        <v>11.87043206298882</v>
+        <v>11.93803632532523</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>593</v>
       </c>
       <c r="B583">
-        <v>11.8260559618756</v>
+        <v>11.89662201460524</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>594</v>
       </c>
       <c r="B584">
-        <v>11.86807925253702</v>
+        <v>11.93583748668211</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>595</v>
       </c>
       <c r="B585">
-        <v>11.24439221135721</v>
+        <v>11.36732149111144</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>596</v>
       </c>
       <c r="B586">
-        <v>12.00795701643744</v>
+        <v>12.06712662020415</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>597</v>
       </c>
       <c r="B587">
-        <v>11.34769698560245</v>
+        <v>11.45920818246424</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>598</v>
       </c>
       <c r="B588">
-        <v>11.88183031776659</v>
+        <v>11.94869343500844</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>599</v>
       </c>
       <c r="B589">
-        <v>11.54871722906829</v>
+        <v>11.64082603422229</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>600</v>
       </c>
       <c r="B590">
-        <v>10.9024820636747</v>
+        <v>11.07148596868925</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>601</v>
       </c>
       <c r="B591">
-        <v>11.6942465214306</v>
+        <v>11.77436622621678</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>602</v>
       </c>
       <c r="B592">
-        <v>11.61032437095736</v>
+        <v>11.69716185396896</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>603</v>
       </c>
       <c r="B593">
-        <v>10.7899580479978</v>
+        <v>10.97731180739474</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>604</v>
       </c>
       <c r="B594">
-        <v>10.87699003016139</v>
+        <v>11.05000072118879</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>605</v>
       </c>
       <c r="B595">
-        <v>11.36293943427374</v>
+        <v>11.47285318934052</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>606</v>
       </c>
       <c r="B596">
-        <v>11.94704281565155</v>
+        <v>12.00981442299735</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>607</v>
       </c>
       <c r="B597">
-        <v>10.88603408018735</v>
+        <v>11.05761338446748</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>608</v>
       </c>
       <c r="B598">
-        <v>11.74874829344151</v>
+        <v>11.82477562222783</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>609</v>
       </c>
       <c r="B599">
-        <v>11.26971950261897</v>
+        <v>11.38975167527356</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>610</v>
       </c>
       <c r="B600">
-        <v>11.30845645392083</v>
+        <v>11.42418167913567</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>611</v>
       </c>
       <c r="B601">
-        <v>11.26465639487528</v>
+        <v>11.38526253348007</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>612</v>
       </c>
       <c r="B602">
-        <v>11.86779878696233</v>
+        <v>11.93557539783249</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>613</v>
       </c>
       <c r="B603">
-        <v>11.17615118273783</v>
+        <v>11.36682397002884</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>614</v>
       </c>
       <c r="B604">
-        <v>11.2061828897797</v>
+        <v>11.39170653337794</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>615</v>
       </c>
       <c r="B605">
-        <v>10.61307386704785</v>
+        <v>10.9270709322979</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>616</v>
       </c>
       <c r="B606">
-        <v>10.97291130373956</v>
+        <v>11.20196111826659</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>617</v>
       </c>
       <c r="B607">
-        <v>11.2099537662961</v>
+        <v>11.39483988355149</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>618</v>
       </c>
       <c r="B608">
-        <v>11.30709369627461</v>
+        <v>11.47623035978244</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>619</v>
       </c>
       <c r="B609">
-        <v>11.34116395410552</v>
+        <v>11.50507472842551</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>620</v>
       </c>
       <c r="B610">
-        <v>10.54141267859585</v>
+        <v>10.87523191259525</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>621</v>
       </c>
       <c r="B611">
-        <v>11.44871755584115</v>
+        <v>11.59709196580103</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>622</v>
       </c>
       <c r="B612">
-        <v>10.92581257303212</v>
+        <v>11.16468626842399</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>623</v>
       </c>
       <c r="B613">
-        <v>11.71495160503852</v>
+        <v>11.83056431871181</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>624</v>
       </c>
       <c r="B614">
-        <v>11.60937136323848</v>
+        <v>11.73706851661752</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>625</v>
       </c>
       <c r="B615">
-        <v>11.03461543288092</v>
+        <v>11.25133989723972</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>626</v>
       </c>
       <c r="B616">
-        <v>11.20661767239525</v>
+        <v>11.39206770719677</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>627</v>
       </c>
       <c r="B617">
-        <v>11.09937778066871</v>
+        <v>11.30380808538911</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>628</v>
       </c>
       <c r="B618">
-        <v>11.83587815150393</v>
+        <v>11.93897720668678</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>629</v>
       </c>
       <c r="B619">
-        <v>11.62650411903244</v>
+        <v>11.7521628135812</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>630</v>
       </c>
       <c r="B620">
-        <v>10.95013965782898</v>
+        <v>11.1838934808967</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>631</v>
       </c>
       <c r="B621">
-        <v>11.73159502288499</v>
+        <v>11.84540402317767</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>632</v>
       </c>
       <c r="B622">
-        <v>11.28998189365869</v>
+        <v>11.46180057745408</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>633</v>
       </c>
       <c r="B623">
-        <v>11.95735484309653</v>
+        <v>12.04918488999303</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>634</v>
       </c>
       <c r="B624">
-        <v>11.34154384821461</v>
+        <v>11.50539719854944</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>635</v>
       </c>
       <c r="B625">
-        <v>11.26705050165393</v>
+        <v>11.4425244596709</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>636</v>
       </c>
       <c r="B626">
-        <v>11.35266281169522</v>
+        <v>11.51484362412613</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>637</v>
       </c>
       <c r="B627">
-        <v>11.97486542000637</v>
+        <v>12.06517130428659</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>638</v>
       </c>
       <c r="B628">
-        <v>11.60107369549692</v>
+        <v>11.72976921413591</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>639</v>
       </c>
       <c r="B629">
-        <v>11.86382878508571</v>
+        <v>11.96422398942157</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>640</v>
       </c>
       <c r="B630">
-        <v>11.36384524195608</v>
+        <v>11.52435984259589</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>641</v>
       </c>
       <c r="B631">
-        <v>12.15131018263544</v>
+        <v>11.40022698104461</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>642</v>
       </c>
       <c r="B632">
-        <v>11.86403997832831</v>
+        <v>11.53336514420768</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>643</v>
       </c>
       <c r="B633">
-        <v>12.14824224124933</v>
+        <v>11.39371390946505</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>794</v>
       </c>
       <c r="B784">
-        <v>11.89538803151308</v>
+        <v>11.47822014208113</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>840</v>
       </c>
       <c r="B830">
-        <v>11.78293733489117</v>
+        <v>11.0185963557327</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>841</v>
       </c>
       <c r="B831">
-        <v>11.93855261290233</v>
+        <v>11.5430181052774</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>842</v>
       </c>
       <c r="B832">
-        <v>12.13595056529837</v>
+        <v>11.89448032103085</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>844</v>
       </c>
       <c r="B834">
-        <v>12.05581936098161</v>
+        <v>11.43060850648101</v>
       </c>
     </row>
     <row r="835" spans="1:2">

--- a/y_dis.xlsx
+++ b/y_dis.xlsx
@@ -614,7 +614,7 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>12.19401524636689</v>
+        <v>11.48866350963371</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -638,7 +638,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>11.98949499145805</v>
+        <v>11.01951399745803</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>12.5790283359426</v>
+        <v>11.41204379318897</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>12.30994154928788</v>
+        <v>11.7108824817347</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>511</v>
       </c>
       <c r="B501">
-        <v>11.47503666442742</v>
+        <v>11.3653762805775</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>512</v>
       </c>
       <c r="B502">
-        <v>11.82114518863956</v>
+        <v>11.74483052195301</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>513</v>
       </c>
       <c r="B503">
-        <v>11.40384693494399</v>
+        <v>11.28559817400969</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>514</v>
       </c>
       <c r="B504">
-        <v>12.10785323802371</v>
+        <v>12.05111330549203</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>515</v>
       </c>
       <c r="B505">
-        <v>11.23329092409775</v>
+        <v>11.09142243416429</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>516</v>
       </c>
       <c r="B506">
-        <v>10.85419903461241</v>
+        <v>10.63947868208796</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>517</v>
       </c>
       <c r="B507">
-        <v>11.42900023003247</v>
+        <v>11.31386458417198</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>518</v>
       </c>
       <c r="B508">
-        <v>11.77043179491195</v>
+        <v>11.68998319208908</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>519</v>
       </c>
       <c r="B509">
-        <v>12.04396539598646</v>
+        <v>11.98336649854074</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>520</v>
       </c>
       <c r="B510">
-        <v>11.31397440120471</v>
+        <v>11.18385179135868</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>521</v>
       </c>
       <c r="B511">
-        <v>11.26377155822379</v>
+        <v>11.12646855103274</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>522</v>
       </c>
       <c r="B512">
-        <v>11.36988615789768</v>
+        <v>11.24729186203507</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>523</v>
       </c>
       <c r="B513">
-        <v>11.49986048864079</v>
+        <v>11.39303771595779</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>524</v>
       </c>
       <c r="B514">
-        <v>11.93838925958508</v>
+        <v>11.87080967744895</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>525</v>
       </c>
       <c r="B515">
-        <v>11.63035288184619</v>
+        <v>11.53722775749319</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>526</v>
       </c>
       <c r="B516">
-        <v>11.36509808421544</v>
+        <v>11.24187760699893</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>527</v>
       </c>
       <c r="B517">
-        <v>11.73693264325129</v>
+        <v>11.65362609707308</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>528</v>
       </c>
       <c r="B518">
-        <v>11.72060607889772</v>
+        <v>11.63586849824468</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>529</v>
       </c>
       <c r="B519">
-        <v>11.60196145770819</v>
+        <v>11.50602168865343</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>530</v>
       </c>
       <c r="B520">
-        <v>11.19417919106523</v>
+        <v>11.04621241582256</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>531</v>
       </c>
       <c r="B521">
-        <v>11.22590983706161</v>
+        <v>11.08291148394065</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>532</v>
       </c>
       <c r="B522">
-        <v>11.19714565573409</v>
+        <v>11.04965114306246</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>533</v>
       </c>
       <c r="B523">
-        <v>11.79413413005885</v>
+        <v>11.71564587651021</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>534</v>
       </c>
       <c r="B524">
-        <v>12.09625777952297</v>
+        <v>12.03883672615426</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>535</v>
       </c>
       <c r="B525">
-        <v>11.15502119429035</v>
+        <v>11.00066547966606</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>536</v>
       </c>
       <c r="B526">
-        <v>11.74403718593362</v>
+        <v>11.6613454700885</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>537</v>
       </c>
       <c r="B527">
-        <v>11.80675858090652</v>
+        <v>11.72929411840324</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>538</v>
       </c>
       <c r="B528">
-        <v>12.16564119973584</v>
+        <v>12.11217396908612</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>539</v>
       </c>
       <c r="B529">
-        <v>11.37016302560283</v>
+        <v>11.24760483475683</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>540</v>
       </c>
       <c r="B530">
-        <v>12.03231431939671</v>
+        <v>11.97098302319756</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>541</v>
       </c>
       <c r="B531">
-        <v>11.1152201714735</v>
+        <v>10.95406439216568</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>542</v>
       </c>
       <c r="B532">
-        <v>11.36154427988291</v>
+        <v>11.2378568407911</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>543</v>
       </c>
       <c r="B533">
-        <v>11.76370752934839</v>
+        <v>11.68269355569256</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>544</v>
       </c>
       <c r="B534">
-        <v>10.87708446510995</v>
+        <v>10.66776864425427</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>545</v>
       </c>
       <c r="B535">
-        <v>11.64180229189111</v>
+        <v>11.5497876297028</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>546</v>
       </c>
       <c r="B536">
-        <v>11.18758306133577</v>
+        <v>11.03856033820701</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>547</v>
       </c>
       <c r="B537">
-        <v>11.24931141985215</v>
+        <v>11.10986246947808</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>548</v>
       </c>
       <c r="B538">
-        <v>11.48514308395778</v>
+        <v>11.3766474466776</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>549</v>
       </c>
       <c r="B539">
-        <v>11.26978326714933</v>
+        <v>11.13336199438472</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>550</v>
       </c>
       <c r="B540">
-        <v>12.14494164552594</v>
+        <v>12.09032503698586</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>551</v>
       </c>
       <c r="B541">
-        <v>11.89498546463207</v>
+        <v>11.8242996496788</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>552</v>
       </c>
       <c r="B542">
-        <v>11.45859598709147</v>
+        <v>11.34701254711029</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>553</v>
       </c>
       <c r="B543">
-        <v>11.46773979679291</v>
+        <v>11.35723025964398</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>554</v>
       </c>
       <c r="B544">
-        <v>11.90773399288986</v>
+        <v>11.83797557389075</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>555</v>
       </c>
       <c r="B545">
-        <v>11.80914845968376</v>
+        <v>11.73187623886473</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>556</v>
       </c>
       <c r="B546">
-        <v>11.59206930724682</v>
+        <v>11.49512802593965</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>557</v>
       </c>
       <c r="B547">
-        <v>11.0910717950065</v>
+        <v>10.92563267809028</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>558</v>
       </c>
       <c r="B548">
-        <v>10.87218096320333</v>
+        <v>10.66171997975201</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>559</v>
       </c>
       <c r="B549">
-        <v>11.45728589709955</v>
+        <v>11.34554769156188</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>560</v>
       </c>
       <c r="B550">
-        <v>11.18525438430208</v>
+        <v>11.03585693800237</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>561</v>
       </c>
       <c r="B551">
-        <v>11.04538280505385</v>
+        <v>10.87149748808559</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>562</v>
       </c>
       <c r="B552">
-        <v>11.66524303711032</v>
+        <v>11.5754588521697</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>563</v>
       </c>
       <c r="B553">
-        <v>11.63867667027579</v>
+        <v>11.54636024105647</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>564</v>
       </c>
       <c r="B554">
-        <v>11.66886882270412</v>
+        <v>11.57942456292043</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>565</v>
       </c>
       <c r="B555">
-        <v>11.45025187044217</v>
+        <v>11.33767882184824</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>566</v>
       </c>
       <c r="B556">
-        <v>11.79912644114021</v>
+        <v>11.72104471458532</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>567</v>
       </c>
       <c r="B557">
-        <v>11.52133004731404</v>
+        <v>11.41689902871548</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>568</v>
       </c>
       <c r="B558">
-        <v>11.94748324728167</v>
+        <v>11.88053639246074</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>569</v>
       </c>
       <c r="B559">
-        <v>11.73038891500924</v>
+        <v>11.64651185608231</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>570</v>
       </c>
       <c r="B560">
-        <v>11.28276988675664</v>
+        <v>11.1482327501522</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>571</v>
       </c>
       <c r="B561">
-        <v>11.66248275417021</v>
+        <v>11.57243888139127</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>572</v>
       </c>
       <c r="B562">
-        <v>11.37126973050229</v>
+        <v>11.24885574704337</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>573</v>
       </c>
       <c r="B563">
-        <v>11.22757400785673</v>
+        <v>11.0848312388017</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>574</v>
       </c>
       <c r="B564">
-        <v>11.98632955608659</v>
+        <v>11.92201732180074</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>575</v>
       </c>
       <c r="B565">
-        <v>11.81624709940969</v>
+        <v>11.73954297509594</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>576</v>
       </c>
       <c r="B566">
-        <v>12.07928985832692</v>
+        <v>12.02085690462288</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>577</v>
       </c>
       <c r="B567">
-        <v>11.56532814376328</v>
+        <v>11.46562419185222</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>578</v>
       </c>
       <c r="B568">
-        <v>10.9683879267187</v>
+        <v>10.77918543030203</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>579</v>
       </c>
       <c r="B569">
-        <v>11.85864056867262</v>
+        <v>11.78524006029089</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>580</v>
       </c>
       <c r="B570">
-        <v>10.94811872733772</v>
+        <v>10.75464225146475</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>581</v>
       </c>
       <c r="B571">
-        <v>11.30111742331976</v>
+        <v>11.1691949506669</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>582</v>
       </c>
       <c r="B572">
-        <v>11.17865480310386</v>
+        <v>11.02818985096398</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>583</v>
       </c>
       <c r="B573">
-        <v>12.20354445234134</v>
+        <v>12.15211791793225</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>584</v>
       </c>
       <c r="B574">
-        <v>12.13776703782336</v>
+        <v>12.08274614824279</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>585</v>
       </c>
       <c r="B575">
-        <v>11.67908376392176</v>
+        <v>11.59058996232671</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>586</v>
       </c>
       <c r="B576">
-        <v>11.85392316052366</v>
+        <v>11.78016245379495</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>587</v>
       </c>
       <c r="B577">
-        <v>11.43296192082984</v>
+        <v>11.31830863008212</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>588</v>
       </c>
       <c r="B578">
-        <v>11.8702641885585</v>
+        <v>11.79774343980736</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>589</v>
       </c>
       <c r="B579">
-        <v>11.24911615693</v>
+        <v>11.10963798410984</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>590</v>
       </c>
       <c r="B580">
-        <v>11.35732373287566</v>
+        <v>11.23307927828622</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>591</v>
       </c>
       <c r="B581">
-        <v>11.84125031588403</v>
+        <v>11.76651286365118</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>592</v>
       </c>
       <c r="B582">
-        <v>11.93803632532523</v>
+        <v>11.87043206298882</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>593</v>
       </c>
       <c r="B583">
-        <v>11.89662201460524</v>
+        <v>11.8260559618756</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>594</v>
       </c>
       <c r="B584">
-        <v>11.93583748668211</v>
+        <v>11.86807925253702</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>595</v>
       </c>
       <c r="B585">
-        <v>11.36732149111144</v>
+        <v>11.24439221135721</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>596</v>
       </c>
       <c r="B586">
-        <v>12.06712662020415</v>
+        <v>12.00795701643744</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>597</v>
       </c>
       <c r="B587">
-        <v>11.45920818246424</v>
+        <v>11.34769698560245</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>598</v>
       </c>
       <c r="B588">
-        <v>11.94869343500844</v>
+        <v>11.88183031776659</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>599</v>
       </c>
       <c r="B589">
-        <v>11.64082603422229</v>
+        <v>11.54871722906829</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>600</v>
       </c>
       <c r="B590">
-        <v>11.07148596868925</v>
+        <v>10.9024820636747</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>601</v>
       </c>
       <c r="B591">
-        <v>11.77436622621678</v>
+        <v>11.6942465214306</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>602</v>
       </c>
       <c r="B592">
-        <v>11.69716185396896</v>
+        <v>11.61032437095736</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>603</v>
       </c>
       <c r="B593">
-        <v>10.97731180739474</v>
+        <v>10.7899580479978</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>604</v>
       </c>
       <c r="B594">
-        <v>11.05000072118879</v>
+        <v>10.87699003016139</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>605</v>
       </c>
       <c r="B595">
-        <v>11.47285318934052</v>
+        <v>11.36293943427374</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>606</v>
       </c>
       <c r="B596">
-        <v>12.00981442299735</v>
+        <v>11.94704281565155</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>607</v>
       </c>
       <c r="B597">
-        <v>11.05761338446748</v>
+        <v>10.88603408018735</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>608</v>
       </c>
       <c r="B598">
-        <v>11.82477562222783</v>
+        <v>11.74874829344151</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>609</v>
       </c>
       <c r="B599">
-        <v>11.38975167527356</v>
+        <v>11.26971950261897</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>610</v>
       </c>
       <c r="B600">
-        <v>11.42418167913567</v>
+        <v>11.30845645392083</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>611</v>
       </c>
       <c r="B601">
-        <v>11.38526253348007</v>
+        <v>11.26465639487528</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>612</v>
       </c>
       <c r="B602">
-        <v>11.93557539783249</v>
+        <v>11.86779878696233</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>613</v>
       </c>
       <c r="B603">
-        <v>11.36682397002884</v>
+        <v>11.17615118273783</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>614</v>
       </c>
       <c r="B604">
-        <v>11.39170653337794</v>
+        <v>11.2061828897797</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>615</v>
       </c>
       <c r="B605">
-        <v>10.9270709322979</v>
+        <v>10.61307386704785</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>616</v>
       </c>
       <c r="B606">
-        <v>11.20196111826659</v>
+        <v>10.97291130373956</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>617</v>
       </c>
       <c r="B607">
-        <v>11.39483988355149</v>
+        <v>11.2099537662961</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>618</v>
       </c>
       <c r="B608">
-        <v>11.47623035978244</v>
+        <v>11.30709369627461</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>619</v>
       </c>
       <c r="B609">
-        <v>11.50507472842551</v>
+        <v>11.34116395410552</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>620</v>
       </c>
       <c r="B610">
-        <v>10.87523191259525</v>
+        <v>10.54141267859585</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>621</v>
       </c>
       <c r="B611">
-        <v>11.59709196580103</v>
+        <v>11.44871755584115</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>622</v>
       </c>
       <c r="B612">
-        <v>11.16468626842399</v>
+        <v>10.92581257303212</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>623</v>
       </c>
       <c r="B613">
-        <v>11.83056431871181</v>
+        <v>11.71495160503852</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>624</v>
       </c>
       <c r="B614">
-        <v>11.73706851661752</v>
+        <v>11.60937136323848</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>625</v>
       </c>
       <c r="B615">
-        <v>11.25133989723972</v>
+        <v>11.03461543288092</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>626</v>
       </c>
       <c r="B616">
-        <v>11.39206770719677</v>
+        <v>11.20661767239525</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>627</v>
       </c>
       <c r="B617">
-        <v>11.30380808538911</v>
+        <v>11.09937778066871</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>628</v>
       </c>
       <c r="B618">
-        <v>11.93897720668678</v>
+        <v>11.83587815150393</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>629</v>
       </c>
       <c r="B619">
-        <v>11.7521628135812</v>
+        <v>11.62650411903244</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>630</v>
       </c>
       <c r="B620">
-        <v>11.1838934808967</v>
+        <v>10.95013965782898</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>631</v>
       </c>
       <c r="B621">
-        <v>11.84540402317767</v>
+        <v>11.73159502288499</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>632</v>
       </c>
       <c r="B622">
-        <v>11.46180057745408</v>
+        <v>11.28998189365869</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>633</v>
       </c>
       <c r="B623">
-        <v>12.04918488999303</v>
+        <v>11.95735484309653</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>634</v>
       </c>
       <c r="B624">
-        <v>11.50539719854944</v>
+        <v>11.34154384821461</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>635</v>
       </c>
       <c r="B625">
-        <v>11.4425244596709</v>
+        <v>11.26705050165393</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>636</v>
       </c>
       <c r="B626">
-        <v>11.51484362412613</v>
+        <v>11.35266281169522</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>637</v>
       </c>
       <c r="B627">
-        <v>12.06517130428659</v>
+        <v>11.97486542000637</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>638</v>
       </c>
       <c r="B628">
-        <v>11.72976921413591</v>
+        <v>11.60107369549692</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>639</v>
       </c>
       <c r="B629">
-        <v>11.96422398942157</v>
+        <v>11.86382878508571</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>640</v>
       </c>
       <c r="B630">
-        <v>11.52435984259589</v>
+        <v>11.36384524195608</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>641</v>
       </c>
       <c r="B631">
-        <v>11.40022698104461</v>
+        <v>12.15131018263544</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>642</v>
       </c>
       <c r="B632">
-        <v>11.53336514420768</v>
+        <v>11.86403997832831</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>643</v>
       </c>
       <c r="B633">
-        <v>11.39371390946505</v>
+        <v>12.14824224124933</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>794</v>
       </c>
       <c r="B784">
-        <v>11.47822014208113</v>
+        <v>11.89538803151308</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -7014,7 +7014,7 @@
         <v>840</v>
       </c>
       <c r="B830">
-        <v>11.0185963557327</v>
+        <v>11.78293733489117</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7022,7 +7022,7 @@
         <v>841</v>
       </c>
       <c r="B831">
-        <v>11.5430181052774</v>
+        <v>11.93855261290233</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7030,7 +7030,7 @@
         <v>842</v>
       </c>
       <c r="B832">
-        <v>11.89448032103085</v>
+        <v>12.13595056529837</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7046,7 +7046,7 @@
         <v>844</v>
       </c>
       <c r="B834">
-        <v>11.43060850648101</v>
+        <v>12.05581936098161</v>
       </c>
     </row>
     <row r="835" spans="1:2">
